--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Desktop/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574C4BCB-B8B2-4199-A5F7-DACB79997D46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3654DDCE-FD72-8941-9B70-822D4D035E42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="4" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,17 @@
     <sheet name="RESUMES" sheetId="4" r:id="rId6"/>
     <sheet name="LINKEDIN" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="180">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -550,6 +544,33 @@
   </si>
   <si>
     <t>IMAGE LOCATION</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/8/85/T--CMUQ--wikicaret.png</t>
+  </si>
+  <si>
+    <t>caret.png</t>
+  </si>
+  <si>
+    <t>Header caret icon</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/3/39/T--CMUQ--wikiinstagram.png</t>
+  </si>
+  <si>
+    <t>instagram.png</t>
+  </si>
+  <si>
+    <t>instagram logo</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/8/83/T--CMUQ--wikilinkedin.png</t>
+  </si>
+  <si>
+    <t>linkedin.png</t>
+  </si>
+  <si>
+    <t>linkedin logo</t>
   </si>
 </sst>
 </file>
@@ -629,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,12 +673,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,6 +702,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -991,14 +1025,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +1041,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1050,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +1059,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1068,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1077,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1073,13 +1107,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +1193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1167,7 +1201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1205,13 +1239,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1227,7 +1261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1251,35 +1285,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
     </row>
@@ -1302,13 +1336,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -1332,7 +1366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -1340,7 +1374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
@@ -1348,7 +1382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +1390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
@@ -1364,7 +1398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -1372,7 +1406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -1380,7 +1414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -1407,20 +1441,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C77720-AE95-4068-B6DE-4C0C0BC0D6AD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1437,8 +1471,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1452,8 +1486,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1467,8 +1501,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1482,8 +1516,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1497,8 +1531,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1512,8 +1546,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1527,7 +1561,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1542,8 +1576,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1557,8 +1591,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1572,8 +1606,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1587,8 +1621,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1602,8 +1636,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1617,8 +1651,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1632,7 +1666,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>78</v>
@@ -1645,7 +1679,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>79</v>
@@ -1658,7 +1692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
@@ -1673,8 +1707,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1688,8 +1722,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1703,8 +1737,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1718,7 +1752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>128</v>
       </c>
@@ -1733,7 +1767,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
@@ -1748,7 +1782,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>137</v>
       </c>
@@ -1763,7 +1797,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>139</v>
       </c>
@@ -1778,46 +1812,76 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E27" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -1849,6 +1913,10 @@
     <hyperlink ref="A21" r:id="rId20" xr:uid="{B98C7167-A4E8-4132-9A0B-1D1891636066}"/>
     <hyperlink ref="A24" r:id="rId21" xr:uid="{61F03F21-0FF6-432D-A230-385984BE0F7C}"/>
     <hyperlink ref="A23" r:id="rId22" xr:uid="{B4A9FC35-0199-47E2-AA12-F7F07A773714}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{B2CD273B-1863-054C-8205-B011DE3485EA}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{6DB402F7-C9CA-834E-9872-713ABC69D423}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{832E807A-D19D-2541-8BFE-2B75DC054159}"/>
+    <hyperlink ref="A32" r:id="rId26" xr:uid="{DD0FBBAE-B902-7E4B-BFE6-C6E0DAF327C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1858,18 +1926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21A276B-EBB5-431B-A41D-C0AB0D8FD621}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
@@ -1885,7 +1953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -1893,7 +1961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>66</v>
       </c>
@@ -1901,7 +1969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1909,7 +1977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>72</v>
       </c>
@@ -1925,7 +1993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
@@ -1933,7 +2001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +2009,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>77</v>
       </c>
@@ -1949,25 +2017,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>82</v>
       </c>
@@ -1975,7 +2043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -2003,13 +2071,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2085,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2025,7 +2093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -2033,7 +2101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2041,7 +2109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -2049,7 +2117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -2057,7 +2125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -2065,7 +2133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -2073,7 +2141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -2081,13 +2149,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
@@ -2095,7 +2163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -2103,7 +2171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -2111,7 +2179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>96</v>
       </c>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Desktop/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3654DDCE-FD72-8941-9B70-822D4D035E42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70604D6-C0A0-A247-9F33-79F9F16F5CF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="4" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="5" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="180">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -1441,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C77720-AE95-4068-B6DE-4C0C0BC0D6AD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21A276B-EBB5-431B-A41D-C0AB0D8FD621}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1994,9 +1994,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
@@ -2048,16 +2046,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{2BF8B63B-2DA7-45B0-AEDA-0000EF79462D}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{688D4C0D-8EBD-488D-AC40-F955406F45F5}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{575B705B-0892-4489-B6BF-50D36D8D2438}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{283E196A-709A-4A19-91A4-B708EEC51BFC}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{11FF0A93-982C-4A78-8013-B1FB0ED077D6}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{33E5F4DD-6C42-4C96-AA4E-382241C5AA87}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{FF26779B-21C8-4D47-919D-0880271C6248}"/>
-    <hyperlink ref="A7" r:id="rId8" xr:uid="{8CB7173F-30DE-4DA0-B127-F27B1CC22DE7}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{673EDDEF-2BB6-470B-AE4A-6E6E6A1EE11B}"/>
-    <hyperlink ref="A14" r:id="rId10" xr:uid="{F30B6B40-F221-409A-A82C-DBBF106DBF6D}"/>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{688D4C0D-8EBD-488D-AC40-F955406F45F5}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{575B705B-0892-4489-B6BF-50D36D8D2438}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{283E196A-709A-4A19-91A4-B708EEC51BFC}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{11FF0A93-982C-4A78-8013-B1FB0ED077D6}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{33E5F4DD-6C42-4C96-AA4E-382241C5AA87}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{FF26779B-21C8-4D47-919D-0880271C6248}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{8CB7173F-30DE-4DA0-B127-F27B1CC22DE7}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{673EDDEF-2BB6-470B-AE4A-6E6E6A1EE11B}"/>
+    <hyperlink ref="A14" r:id="rId9" xr:uid="{F30B6B40-F221-409A-A82C-DBBF106DBF6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2068,7 +2065,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Desktop/iGEM_2019/wiki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70604D6-C0A0-A247-9F33-79F9F16F5CF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666D705-98CF-DA48-8B5F-842100CDA70D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="5" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -571,6 +571,21 @@
   </si>
   <si>
     <t>linkedin logo</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/3/3b/T--CMUQ--wikijoanaresume.pdf</t>
+  </si>
+  <si>
+    <t>materialize.css</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/index.php?title=Team:CMUQ/materialize-css&amp;action=raw&amp;ctype=text/css</t>
+  </si>
+  <si>
+    <t>materialize.js</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/index.php?title=Team:CMUQ/materialize-js&amp;action=raw&amp;ctype=text/javascript</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D80558-3075-45B9-9436-5060B6533359}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1086,6 +1101,22 @@
       </c>
       <c r="C6" s="2"/>
     </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{11152AD3-3997-4986-B427-B3BD3563B8A9}"/>
@@ -1093,9 +1124,11 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{C43A25CE-33A2-453F-A66F-208B6CDC840D}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{F54ED7CA-0829-4E25-A6DF-64A3BBCA642E}"/>
     <hyperlink ref="A2" r:id="rId5" xr:uid="{40DB5EE2-F92C-4368-9596-F24D06E49A76}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{7DDBC47B-E78B-3D43-8EE3-A656D954DB54}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{BE155BDF-1368-B345-9E0B-69A4B3A6C028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1926,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21A276B-EBB5-431B-A41D-C0AB0D8FD621}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2061,9 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
@@ -2055,6 +2090,7 @@
     <hyperlink ref="A7" r:id="rId7" xr:uid="{8CB7173F-30DE-4DA0-B127-F27B1CC22DE7}"/>
     <hyperlink ref="A10" r:id="rId8" xr:uid="{673EDDEF-2BB6-470B-AE4A-6E6E6A1EE11B}"/>
     <hyperlink ref="A14" r:id="rId9" xr:uid="{F30B6B40-F221-409A-A82C-DBBF106DBF6D}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{477619E7-EA82-F949-B623-3E4073D054AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666D705-98CF-DA48-8B5F-842100CDA70D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58C40E-B67B-B44F-A61D-739903C2214E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="189">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>https://2019.igem.org/wiki/index.php?title=Team:CMUQ/materialize-js&amp;action=raw&amp;ctype=text/javascript</t>
+  </si>
+  <si>
+    <t>swiper.js</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/index.php?title=Team:CMUQ/swipercss&amp;action=raw&amp;ctype=text/css</t>
+  </si>
+  <si>
+    <t>swiper.css</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/index.php?title=Team:CMUQ/swiperjs&amp;action=raw&amp;ctype=text/javascript</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D80558-3075-45B9-9436-5060B6533359}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1117,6 +1129,14 @@
         <v>183</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{11152AD3-3997-4986-B427-B3BD3563B8A9}"/>
@@ -1126,18 +1146,19 @@
     <hyperlink ref="A2" r:id="rId5" xr:uid="{40DB5EE2-F92C-4368-9596-F24D06E49A76}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{7DDBC47B-E78B-3D43-8EE3-A656D954DB54}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{BE155BDF-1368-B345-9E0B-69A4B3A6C028}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{5563A4E5-148E-144E-83F3-ACD74873E377}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0369663-A788-443C-A538-BACB337D1CDF}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1250,6 +1271,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" xr:uid="{2CD55365-2D85-4826-B2CD-4DD776863883}"/>
@@ -1259,6 +1288,7 @@
     <hyperlink ref="A8" r:id="rId5" xr:uid="{B4064F94-ED47-407B-961F-5EFBA20562BC}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{5A4BF78E-25B5-4599-90D8-10E66F369353}"/>
     <hyperlink ref="A13" r:id="rId7" xr:uid="{4CE101BA-FA32-4395-9F61-65652F24575A}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{3BA92BD1-5802-D945-A3D7-DA939E43E601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/iGEM_2019/wiki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA58C40E-B67B-B44F-A61D-739903C2214E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12269F0-81A2-41F3-8901-0A6809CEE03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="191">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t>https://2019.igem.org/wiki/index.php?title=Team:CMUQ/swiperjs&amp;action=raw&amp;ctype=text/javascript</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/a/a1/T--CMUQ--wikijenanresume.pdf</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/4/48/T--CMUQ--wikiweilinresume.pdf</t>
   </si>
 </sst>
 </file>
@@ -1052,14 +1058,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1074,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1083,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1092,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1101,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1119,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>182</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>184</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>186</v>
       </c>
@@ -1157,17 +1163,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0369663-A788-443C-A538-BACB337D1CDF}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>188</v>
       </c>
@@ -1302,13 +1308,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1348,35 +1354,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
     </row>
@@ -1399,13 +1405,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -1508,16 +1514,16 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>107</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>109</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>84</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>114</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>115</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>116</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>117</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>118</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>78</v>
@@ -1742,7 +1748,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>79</v>
@@ -1755,7 +1761,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>122</v>
       </c>
@@ -1785,7 +1791,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>124</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>126</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>128</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>137</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>139</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>171</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>174</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>177</v>
       </c>
@@ -1920,23 +1926,23 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -1989,18 +1995,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21A276B-EBB5-431B-A41D-C0AB0D8FD621}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>66</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>70</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>72</v>
       </c>
@@ -2056,13 +2062,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>75</v>
       </c>
@@ -2070,7 +2078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>77</v>
       </c>
@@ -2078,19 +2086,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>180</v>
       </c>
@@ -2098,7 +2108,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>82</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -2121,6 +2131,8 @@
     <hyperlink ref="A10" r:id="rId8" xr:uid="{673EDDEF-2BB6-470B-AE4A-6E6E6A1EE11B}"/>
     <hyperlink ref="A14" r:id="rId9" xr:uid="{F30B6B40-F221-409A-A82C-DBBF106DBF6D}"/>
     <hyperlink ref="A13" r:id="rId10" xr:uid="{477619E7-EA82-F949-B623-3E4073D054AF}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{6377FBCF-61B7-47E9-A40E-D90252C28558}"/>
+    <hyperlink ref="A8" r:id="rId12" xr:uid="{8B15C56E-4856-4241-A1F6-03139BD773C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2131,16 +2143,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -2212,13 +2224,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>96</v>
       </c>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12269F0-81A2-41F3-8901-0A6809CEE03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD676F83-29BE-674B-9A17-290747AD4404}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="198">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -411,9 +411,6 @@
     <t>img-qf.png</t>
   </si>
   <si>
-    <t>https://2019.igem.org/File:T--CMUQ--wikiimgqf.png</t>
-  </si>
-  <si>
     <t>img-lab.jpg</t>
   </si>
   <si>
@@ -604,6 +601,30 @@
   </si>
   <si>
     <t>https://2019.igem.org/wiki/images/4/48/T--CMUQ--wikiweilinresume.pdf</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/8/8d/T--CMUQ--wikiemail.png</t>
+  </si>
+  <si>
+    <t>email.png</t>
+  </si>
+  <si>
+    <t>email logo</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/b/bc/T--CMUQ--wikilocation.png</t>
+  </si>
+  <si>
+    <t>locationpin.png</t>
+  </si>
+  <si>
+    <t>location pin logo</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/9/9b/T--CMUQ--wikiimgqf.png</t>
   </si>
 </sst>
 </file>
@@ -1058,14 +1079,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1095,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1104,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1113,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1122,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1131,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1119,28 +1140,28 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1167,13 +1188,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1237,7 +1258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -1277,12 +1298,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1308,13 +1329,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1330,7 +1351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -1346,7 +1367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1354,35 +1375,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
     </row>
@@ -1405,13 +1426,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1427,7 +1448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -1435,7 +1456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -1443,7 +1464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
@@ -1459,7 +1480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
@@ -1467,7 +1488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -1475,7 +1496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -1483,7 +1504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -1510,20 +1531,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C77720-AE95-4068-B6DE-4C0C0BC0D6AD}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="102.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1531,16 +1552,16 @@
         <v>83</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -1548,14 +1569,14 @@
         <v>98</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
@@ -1563,14 +1584,14 @@
         <v>100</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
@@ -1578,14 +1599,14 @@
         <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
@@ -1593,14 +1614,14 @@
         <v>104</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>107</v>
       </c>
@@ -1608,14 +1629,14 @@
         <v>106</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>109</v>
       </c>
@@ -1623,14 +1644,14 @@
         <v>108</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1638,14 +1659,14 @@
         <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>84</v>
       </c>
@@ -1653,14 +1674,14 @@
         <v>112</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>114</v>
       </c>
@@ -1668,14 +1689,14 @@
         <v>113</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>115</v>
       </c>
@@ -1683,14 +1704,14 @@
         <v>81</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>116</v>
       </c>
@@ -1698,14 +1719,14 @@
         <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>117</v>
       </c>
@@ -1713,14 +1734,14 @@
         <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>118</v>
       </c>
@@ -1728,40 +1749,40 @@
         <v>71</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
@@ -1769,14 +1790,14 @@
         <v>119</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>122</v>
       </c>
@@ -1784,14 +1805,14 @@
         <v>121</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>124</v>
       </c>
@@ -1799,163 +1820,183 @@
         <v>123</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E29" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1976,16 +2017,15 @@
     <hyperlink ref="A7" r:id="rId14" xr:uid="{D7DF488E-F917-4F9A-BC65-A8851B8A57EF}"/>
     <hyperlink ref="A18" r:id="rId15" xr:uid="{1C077260-DA48-4811-A97D-95CE7034332E}"/>
     <hyperlink ref="A17" r:id="rId16" xr:uid="{333DA9DE-1361-4164-A161-2B24CBDF4BE2}"/>
-    <hyperlink ref="A20" r:id="rId17" xr:uid="{CCD59FBF-1C4E-4144-A2BF-E3CCC32DA77F}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{92552D6D-1BD3-4BCA-AFC2-71C48CE61249}"/>
-    <hyperlink ref="A22" r:id="rId19" xr:uid="{1DE3D89A-745E-444F-9D33-1BC667BC6177}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{B98C7167-A4E8-4132-9A0B-1D1891636066}"/>
-    <hyperlink ref="A24" r:id="rId21" xr:uid="{61F03F21-0FF6-432D-A230-385984BE0F7C}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{B4A9FC35-0199-47E2-AA12-F7F07A773714}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{B2CD273B-1863-054C-8205-B011DE3485EA}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{6DB402F7-C9CA-834E-9872-713ABC69D423}"/>
-    <hyperlink ref="A27" r:id="rId25" xr:uid="{832E807A-D19D-2541-8BFE-2B75DC054159}"/>
-    <hyperlink ref="A32" r:id="rId26" xr:uid="{DD0FBBAE-B902-7E4B-BFE6-C6E0DAF327C2}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{92552D6D-1BD3-4BCA-AFC2-71C48CE61249}"/>
+    <hyperlink ref="A22" r:id="rId18" xr:uid="{1DE3D89A-745E-444F-9D33-1BC667BC6177}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{B98C7167-A4E8-4132-9A0B-1D1891636066}"/>
+    <hyperlink ref="A24" r:id="rId20" xr:uid="{61F03F21-0FF6-432D-A230-385984BE0F7C}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{B4A9FC35-0199-47E2-AA12-F7F07A773714}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{B2CD273B-1863-054C-8205-B011DE3485EA}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{6DB402F7-C9CA-834E-9872-713ABC69D423}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{832E807A-D19D-2541-8BFE-2B75DC054159}"/>
+    <hyperlink ref="A32" r:id="rId25" xr:uid="{DD0FBBAE-B902-7E4B-BFE6-C6E0DAF327C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1995,18 +2035,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21A276B-EBB5-431B-A41D-C0AB0D8FD621}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2014,7 +2054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
@@ -2022,7 +2062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -2030,7 +2070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>66</v>
       </c>
@@ -2038,7 +2078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -2046,7 +2086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>70</v>
       </c>
@@ -2054,7 +2094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>72</v>
       </c>
@@ -2062,15 +2102,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>75</v>
       </c>
@@ -2078,7 +2118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>77</v>
       </c>
@@ -2086,29 +2126,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>82</v>
       </c>
@@ -2116,7 +2156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -2146,13 +2186,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -2160,7 +2200,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2168,7 +2208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -2176,7 +2216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>87</v>
       </c>
@@ -2184,7 +2224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -2192,7 +2232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
@@ -2200,7 +2240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
@@ -2208,7 +2248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
@@ -2216,7 +2256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -2224,13 +2264,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
@@ -2238,7 +2278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -2246,7 +2286,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -2254,7 +2294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>96</v>
       </c>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD676F83-29BE-674B-9A17-290747AD4404}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12933549-14B7-944B-8037-CF96CE011CA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/iGEM_Links.xlsx
+++ b/iGEM_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omar/Documents/iGEM_2019/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12933549-14B7-944B-8037-CF96CE011CA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF04635-1F2D-0641-85C8-B229C2D1FE33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{4C17A8AC-393A-4CA5-94E7-54FFA60CB45B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
   <si>
     <t>https://2019.igem.org/Team:CMUQ/components</t>
   </si>
@@ -625,6 +625,45 @@
   </si>
   <si>
     <t>https://2019.igem.org/wiki/images/9/9b/T--CMUQ--wikiimgqf.png</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/8/84/T--CMUQ--notebook-15052019-1.png</t>
+  </si>
+  <si>
+    <t>notebook-15052019-1.png</t>
+  </si>
+  <si>
+    <t>Lab Notebook</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/5/52/T--CMUQ--notebook-15052019.png</t>
+  </si>
+  <si>
+    <t>notebook-15052019.png</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/thumb/b/b6/T--CMUQ--notebook-16052019-1.jpg/800px-T--CMUQ--notebook-16052019-1.jpg</t>
+  </si>
+  <si>
+    <t>notebook-16052019-1.jpg</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/thumb/a/a6/T--CMUQ--notebook-16052019.jpg/450px-T--CMUQ--notebook-16052019.jpg</t>
+  </si>
+  <si>
+    <t>notebook-16052019.jpg</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/b/be/T--CMUQ--notebook-23052019-1.png</t>
+  </si>
+  <si>
+    <t>notebook-23052019-1.png</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/wiki/images/thumb/6/6b/T--CMUQ--notebook-23052019.png/713px-T--CMUQ--notebook-23052019.png</t>
+  </si>
+  <si>
+    <t>notebook-23052019.png</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C77720-AE95-4068-B6DE-4C0C0BC0D6AD}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1991,12 +2030,96 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2026,6 +2149,12 @@
     <hyperlink ref="A25" r:id="rId23" xr:uid="{6DB402F7-C9CA-834E-9872-713ABC69D423}"/>
     <hyperlink ref="A27" r:id="rId24" xr:uid="{832E807A-D19D-2541-8BFE-2B75DC054159}"/>
     <hyperlink ref="A32" r:id="rId25" xr:uid="{DD0FBBAE-B902-7E4B-BFE6-C6E0DAF327C2}"/>
+    <hyperlink ref="A35" r:id="rId26" xr:uid="{1B417A74-41F4-3B47-9C6C-51477755DD36}"/>
+    <hyperlink ref="A36" r:id="rId27" xr:uid="{E778FE6C-93B4-5B46-AD9E-B07B553E983A}"/>
+    <hyperlink ref="A37" r:id="rId28" xr:uid="{ADEC864B-437B-C347-8BAC-84124CCEFCC4}"/>
+    <hyperlink ref="A38" r:id="rId29" xr:uid="{7A0EB37E-0C66-2544-89FF-6B7F9F3862DB}"/>
+    <hyperlink ref="A39" r:id="rId30" xr:uid="{7F0553E1-91A3-0D48-8D5A-785F8C09D2EA}"/>
+    <hyperlink ref="A40" r:id="rId31" xr:uid="{2D02BCDF-6E8B-7142-A6B6-422032DCE1D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
